--- a/data/trans_camb/P0901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,31</t>
+          <t>-3,35; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,08</t>
+          <t>-4,61; 3,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,62</t>
+          <t>-3,23; 1,44</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-24,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>-29,87%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,19; 125,33</t>
+          <t>-86,2; 129,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 110,54</t>
+          <t>-75,36; 96,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,69; 49,23</t>
+          <t>-70,47; 43,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,95</t>
+          <t>0,94; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,14</t>
+          <t>-6,74; -0,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,95</t>
+          <t>-2,06; 2,77</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>138,09%</t>
+          <t>135,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,93%</t>
+          <t>-42,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 354,89</t>
+          <t>18,46; 344,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 3,89</t>
+          <t>-69,38; -5,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 62,43</t>
+          <t>-33,16; 57,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,67</t>
+          <t>0,35; 6,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,56</t>
+          <t>-1,69; 4,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,71</t>
+          <t>0,01; 4,6</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>68,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>32,67%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 178,5</t>
+          <t>4,17; 172,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 62,06</t>
+          <t>-15,71; 60,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 74,31</t>
+          <t>-0,31; 72,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,18</t>
+          <t>-3,78; 7,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,49</t>
+          <t>-2,72; 5,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,79</t>
+          <t>-4,36; 5,1</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,28; 162,76</t>
+          <t>-43,67; 120,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 53,78</t>
+          <t>-16,2; 47,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 72,97</t>
+          <t>-31,39; 51,27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,54</t>
+          <t>-0,47; 9,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,32</t>
+          <t>1,59; 11,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,17; 9,2</t>
+          <t>2,06; 9,1</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,08%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 73,65</t>
+          <t>-2,67; 73,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,92; 76,28</t>
+          <t>7,98; 75,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,22; 62,75</t>
+          <t>10,65; 62,91</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-14,09</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-7,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,39</t>
+          <t>0,78; 14,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,25</t>
+          <t>-5,33; 6,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 4,15</t>
+          <t>-6,34; 4,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,93; 17,36</t>
+          <t>-1,19; 12,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,14</t>
+          <t>-3,99; 11,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 5,82</t>
+          <t>-29,96; -2,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,95</t>
+          <t>1,98; 11,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,5</t>
+          <t>-2,22; 7,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,71</t>
+          <t>-19,69; -1,43</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-41,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>-28,99%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,31; 66,33</t>
+          <t>3,46; 91,95</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 31,48</t>
+          <t>-25,59; 43,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 18,62</t>
+          <t>-28,27; 32,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,84; 47,45</t>
+          <t>-3,27; 41,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,65; 38,47</t>
+          <t>-10,3; 36,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 15,28</t>
+          <t>-80,6; -6,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,99; 46,37</t>
+          <t>6,6; 45,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,56; 30,56</t>
+          <t>-7,96; 29,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 11,52</t>
+          <t>-70,34; -5,71</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>14,68</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>5,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>3,06; 21,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-7,3; 9,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,77</t>
+          <t>-9,04; 6,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>8,55; 24,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>4,62; 19,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,85</t>
+          <t>3,68; 17,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>9,0; 20,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>2,8; 14,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,91</t>
+          <t>0,67; 10,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>6,81; 67,93</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 31,77</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-21,75; 21,85</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 61,81</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 50,17</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 43,38</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>19,94; 53,39</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 38,9</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 28,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 4,47</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 2,96</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 5,76</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 6,55</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 5,02</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 4,9</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 4,94</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 3,5</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 5,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>43,45%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>26,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>14,52; 54,36</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-0,97; 35,69</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>36,05; 81,27</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>10,97; 67,45</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>14,46; 42,39</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>6,97; 32,85</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 37,67</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 30,89</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>18,39; 40,55</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>8,71; 28,63</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 48,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 42,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P0901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,61</t>
+          <t>-1,41; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,11</t>
+          <t>-3,12; 1,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,51</t>
+          <t>-3,39; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,43</t>
+          <t>-3,34; 2,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,76</t>
+          <t>-4,58; 0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,54</t>
+          <t>-4,79; 3,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,32</t>
+          <t>-1,64; 2,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,31</t>
+          <t>-3,09; 0,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,44</t>
+          <t>-3,3; 1,57</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 181,96</t>
+          <t>-35,06; 174,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 60,66</t>
+          <t>-75,95; 64,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,2; 129,69</t>
+          <t>-87,88; 195,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 68,76</t>
+          <t>-51,66; 65,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 26,44</t>
+          <t>-66,09; 23,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 96,04</t>
+          <t>-76,49; 80,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 73,67</t>
+          <t>-32,16; 69,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 13,51</t>
+          <t>-61,11; 14,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,47; 43,57</t>
+          <t>-68,74; 50,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,32</t>
+          <t>-1,44; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,75</t>
+          <t>-0,69; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,84</t>
+          <t>1,35; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -0,31</t>
+          <t>-6,28; -0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,83</t>
+          <t>-5,2; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -0,42</t>
+          <t>-6,89; -0,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,38</t>
+          <t>-2,9; 0,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,79</t>
+          <t>-1,94; 1,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,77</t>
+          <t>-1,7; 2,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 113,17</t>
+          <t>-38,69; 113,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 168,7</t>
+          <t>-22,95; 156,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 344,49</t>
+          <t>27,49; 333,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,84; -4,98</t>
+          <t>-61,45; -5,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 13,9</t>
+          <t>-52,16; 13,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,38; -5,81</t>
+          <t>-71,17; -1,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 9,2</t>
+          <t>-46,63; 11,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 40,38</t>
+          <t>-30,61; 39,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 57,78</t>
+          <t>-27,74; 59,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,19</t>
+          <t>-1,09; 3,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,8</t>
+          <t>-2,95; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,51</t>
+          <t>0,21; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,81</t>
+          <t>-0,42; 6,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,06</t>
+          <t>-3,3; 2,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,43</t>
+          <t>-1,53; 4,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,11</t>
+          <t>0,14; 4,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,5</t>
+          <t>-2,51; 1,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,6</t>
+          <t>0,15; 4,79</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 109,61</t>
+          <t>-18,21; 114,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 52,72</t>
+          <t>-48,23; 47,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 172,73</t>
+          <t>0,07; 166,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 74,82</t>
+          <t>-3,48; 83,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 40,29</t>
+          <t>-30,93; 37,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 60,21</t>
+          <t>-14,54; 62,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 67,27</t>
+          <t>1,08; 77,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 24,94</t>
+          <t>-31,07; 26,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 72,53</t>
+          <t>1,38; 76,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,79</t>
+          <t>-1,63; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,56</t>
+          <t>-0,71; 6,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 7,47</t>
+          <t>-3,75; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,63</t>
+          <t>-2,77; 5,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,81</t>
+          <t>-4,98; 3,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,7</t>
+          <t>-2,34; 5,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,05</t>
+          <t>-1,39; 4,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,87</t>
+          <t>-1,52; 3,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,1</t>
+          <t>-3,94; 5,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 90,66</t>
+          <t>-19,8; 84,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 124,59</t>
+          <t>-7,99; 113,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 120,41</t>
+          <t>-42,5; 121,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 44,82</t>
+          <t>-16,52; 47,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 23,34</t>
+          <t>-30,11; 27,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 47,26</t>
+          <t>-14,45; 49,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 43,83</t>
+          <t>-12,03; 44,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 41,75</t>
+          <t>-12,36; 41,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 51,27</t>
+          <t>-31,07; 50,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,43</t>
+          <t>-4,52; 5,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 2,4</t>
+          <t>-7,65; 2,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,54</t>
+          <t>-0,38; 9,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,72</t>
+          <t>4,78; 17,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,03</t>
+          <t>0,46; 12,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 11,23</t>
+          <t>1,75; 11,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,71</t>
+          <t>2,09; 10,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,46</t>
+          <t>-1,61; 5,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 9,1</t>
+          <t>2,22; 8,74</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 42,81</t>
+          <t>-24,88; 41,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 18,48</t>
+          <t>-40,13; 19,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 73,54</t>
+          <t>-3,92; 70,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,69; 106,86</t>
+          <t>21,99; 111,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,11; 83,68</t>
+          <t>2,07; 83,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,98; 75,73</t>
+          <t>8,36; 78,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,7; 63,03</t>
+          <t>11,12; 67,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 36,66</t>
+          <t>-8,5; 38,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,65; 62,91</t>
+          <t>11,26; 58,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,78; 14,64</t>
+          <t>1,46; 15,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 6,87</t>
+          <t>-5,72; 6,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,74</t>
+          <t>-6,86; 4,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 12,56</t>
+          <t>-0,22; 13,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 11,12</t>
+          <t>-2,46; 11,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -2,28</t>
+          <t>-29,37; -1,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,38</t>
+          <t>1,65; 11,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,26</t>
+          <t>-2,43; 6,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -1,43</t>
+          <t>-18,08; -1,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,46; 91,95</t>
+          <t>5,65; 102,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 43,93</t>
+          <t>-26,9; 44,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 32,88</t>
+          <t>-29,66; 27,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 41,73</t>
+          <t>-0,74; 43,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 36,15</t>
+          <t>-6,95; 40,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -6,76</t>
+          <t>-77,58; -5,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,6; 45,99</t>
+          <t>5,9; 46,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 29,14</t>
+          <t>-8,58; 28,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-70,34; -5,71</t>
+          <t>-62,33; -5,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,06; 21,49</t>
+          <t>2,92; 21,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 9,96</t>
+          <t>-7,24; 10,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 6,85</t>
+          <t>-9,41; 6,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,55; 24,73</t>
+          <t>8,87; 24,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,62; 19,86</t>
+          <t>3,63; 20,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,68; 17,43</t>
+          <t>4,13; 17,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,0; 20,79</t>
+          <t>8,6; 20,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,8; 14,82</t>
+          <t>2,42; 14,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 10,77</t>
+          <t>0,58; 10,72</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,81; 67,93</t>
+          <t>6,95; 66,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 31,77</t>
+          <t>-17,35; 34,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 21,85</t>
+          <t>-22,07; 21,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>16,87; 61,81</t>
+          <t>17,51; 61,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>9,73; 50,17</t>
+          <t>7,14; 50,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,1; 43,38</t>
+          <t>8,33; 42,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,94; 53,39</t>
+          <t>19,44; 56,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,29; 38,9</t>
+          <t>5,25; 37,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1,41; 28,17</t>
+          <t>1,56; 28,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,52; 4,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,05; 2,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,76</t>
+          <t>1,21; 5,79</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,67; 6,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,42; 5,05</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,9</t>
+          <t>-0,92; 4,78</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,49; 4,92</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,06; 3,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,14</t>
+          <t>1,15; 4,74</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,92; 53,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>-0,67; 33,58</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>10,97; 67,45</t>
+          <t>12,55; 67,29</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,62; 41,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>8,47; 32,48</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 30,89</t>
+          <t>-5,04; 30,37</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>18,96; 40,72</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>7,88; 28,49</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,44; 42,5</t>
+          <t>9,7; 39,08</t>
         </is>
       </c>
     </row>
